--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2864163.607314105</v>
+        <v>2968343.241765177</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8562934.34229375</v>
+        <v>8562934.342293752</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>315.9399385984246</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>22.68352231439433</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933823</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>44.80157054286497</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>181.9878824748396</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>75.45713216103589</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>113.6313877022739</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>94.57983363107893</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>81.77200357366344</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>62.45439117602597</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>68.42919822641061</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.85604800581245</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.5271344483740416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>180.2167889402269</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.26519496153743</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>241.143581509382</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>172.9322023713006</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>155.2435806730865</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>162.8435308896552</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.3687739767485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428269</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.06209150957563</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.43007309478926</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8784673763403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>51.36569740310427</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>130.4114987159129</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624059969</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4360,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2752.944093773487</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>2415.099428388741</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424835</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U4" t="n">
-        <v>785.8024369162533</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V4" t="n">
-        <v>785.8024369162533</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="W4" t="n">
-        <v>785.8024369162533</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="X4" t="n">
-        <v>785.8024369162533</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.0098577727232</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2751.318417769983</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.890142568492</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.1048757766374</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C10" t="n">
-        <v>303.1686928487305</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>303.1686928487305</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>155.2555992663374</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>155.2555992663374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2555992663374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>155.2555992663374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766374</v>
+        <v>608.7574741064773</v>
       </c>
     </row>
     <row r="11">
@@ -5033,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>94.56320294380259</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5191,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2680.685310603266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>3278.063798229818</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>3905.661761784424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>4158.121351333892</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4581.74450082896</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2906.022356843753</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C25" t="n">
-        <v>2737.086173915846</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D25" t="n">
-        <v>2586.969534503511</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E25" t="n">
-        <v>2586.969534503511</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>4080.554609958388</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3825.870121752501</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3536.452951715541</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>3308.463400817523</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>3087.670821673993</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6211,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6306,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G28" t="n">
-        <v>2421.591387345378</v>
+        <v>212.4798358593736</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2396.395314378669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2213.540480033573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1993.939015056514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1704.863788400712</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1450.179300194825</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1160.762130157864</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>932.7725792598471</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.980000116317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9629114732377</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.188593250933</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U43" t="n">
-        <v>1959.113366595131</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,64 +7636,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
         <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216018</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.28000623896</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.36786441186791</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.15585306139381</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>45.04089287986216</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>45.65245098079421</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>70.46607471595064</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.680607402613617</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.8157004124956</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219412</v>
+        <v>22.81817176293616</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.31315520054606</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.99097492814198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891646</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>86.99395161137537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610449</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741070.5948813009</v>
+        <v>741070.594881301</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846408</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="H2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26441,25 @@
         <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083975</v>
+        <v>-832389.9260083974</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191949</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191952</v>
+        <v>496354.8197191947</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983637</v>
+        <v>244102.9780983633</v>
       </c>
       <c r="F6" t="n">
+        <v>569515.4399057189</v>
+      </c>
+      <c r="G6" t="n">
         <v>569515.4399057187</v>
       </c>
-      <c r="G6" t="n">
-        <v>569515.4399057186</v>
-      </c>
       <c r="H6" t="n">
-        <v>569515.4399057187</v>
+        <v>569515.4399057192</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.4399057187</v>
+        <v>569515.4399057189</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084414</v>
+        <v>351984.2375084412</v>
       </c>
       <c r="K6" t="n">
         <v>569515.4399057189</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.4399057187</v>
+        <v>569515.439905719</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.4119702069</v>
+        <v>484460.4119702071</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057184</v>
+        <v>569515.4399057186</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057188</v>
+        <v>569515.4399057189</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057186</v>
+        <v>569515.4399057189</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>33.30103011898842</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>363.5544163416592</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>241.4102676627479</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>70.14976084898839</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>289.8157596099717</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>214.120870767861</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754891</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>204.7509947629276</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>317.808740429643</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>8.496372404025635</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>251.610508875454</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028593</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753693</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655508</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33266,13 +33268,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>268.1779244693588</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6926421044561</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,13 +34368,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.7540807028593007</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.286271753351</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>302.4748895856766</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949998</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>405.5586081824378</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2968343.241765177</v>
+        <v>2964330.631751184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76.97130521239055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.68352231439433</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933823</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>142.9824281355619</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>181.9878824748396</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>75.45713216103589</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>237.3731910111186</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107893</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>106.4735778903237</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.6448939492139</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>68.42919822641061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5271344483740416</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>169.3656682115181</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.2167889402269</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>241.143581509382</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.9322023713006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>155.2435806730865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>162.8435308896552</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>117.4765410832877</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>265.56576948799</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3322,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833815</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
-        <v>174.7683347992597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.36569740310427</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>601.3302584915471</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>186.2578083365435</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649821</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388741</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
@@ -4403,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4436,25 +4436,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218339</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218339</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218339</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877102</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877102</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>515.2942464737308</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737308</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218339</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943746</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329463</v>
@@ -4582,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3085.834921597938</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>3085.834921597938</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2733.066266327824</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372931</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388742</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.7574741064773</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>608.7574741064773</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>608.7574741064773</v>
+        <v>749.810573281298</v>
       </c>
       <c r="X10" t="n">
-        <v>608.7574741064773</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y10" t="n">
-        <v>608.7574741064773</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075819</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714573</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5193,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,16 +5889,16 @@
         <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2978.613657539998</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3606.211621094605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.2476448606602</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>785.3114619327533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>635.1948225204176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>487.2817289380245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>340.3917814401141</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.8961096909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6211,19 +6211,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6320,10 +6320,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424041</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>526.5658826424041</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>379.6759351444937</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>212.4798358593736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6843,13 +6843,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7077,22 +7077,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.36786441186791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194309</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.04089287986216</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.65245098079421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>70.46607471595064</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.680607402613617</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>22.81817176293616</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788574</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891646</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>4.066132532898337e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
         <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687977</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26447,19 +26447,19 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083974</v>
+        <v>-832389.9260083972</v>
       </c>
       <c r="C6" t="n">
         <v>496354.8197191949</v>
@@ -26530,40 +26530,40 @@
         <v>496354.8197191947</v>
       </c>
       <c r="E6" t="n">
-        <v>244102.9780983633</v>
+        <v>243755.5988440074</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513617</v>
       </c>
       <c r="G6" t="n">
-        <v>569515.4399057187</v>
+        <v>569168.0606513615</v>
       </c>
       <c r="H6" t="n">
-        <v>569515.4399057192</v>
+        <v>569168.0606513619</v>
       </c>
       <c r="I6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="J6" t="n">
-        <v>351984.2375084412</v>
+        <v>351636.8582540845</v>
       </c>
       <c r="K6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="L6" t="n">
-        <v>569515.439905719</v>
+        <v>569168.0606513617</v>
       </c>
       <c r="M6" t="n">
-        <v>484460.4119702071</v>
+        <v>484113.0327158502</v>
       </c>
       <c r="N6" t="n">
-        <v>569515.4399057186</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="O6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513618</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.4399057189</v>
+        <v>569168.0606513619</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>217.6364591749299</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.5544163416592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>24.26439296306589</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>70.14976084898839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>289.8157596099717</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>13.62198094778341</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.55223036870453</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.0889477142667</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>317.808740429643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>251.610508875454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>117.1573301250729</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551119</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551119</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753693</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34871,13 +34871,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
         <v>157.2826706286436</v>
@@ -35108,13 +35108,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.7638331807529</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>37.7638331807529</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>237.286271753351</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334643</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964330.631751184</v>
+        <v>2966091.16205397</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>76.97130521239055</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>210.1784092540514</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>142.9824281355619</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>121.1566550598663</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>287.8618291812505</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>237.3731910111186</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>106.4735778903237</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.6448939492139</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>42.76773080618699</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>54.45803047044397</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>169.3656682115181</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881268</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788178581</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703258</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.26558381699921</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>265.56576948799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221566</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C2" t="n">
-        <v>1012.316163281155</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.316163281155</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>1012.316163281155</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>601.3302584915471</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>186.2578083365435</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285688</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>751.9508228902786</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>601.8341834779428</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>453.9210898955497</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>814.3509897732238</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3085.834921597938</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3085.834921597938</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2733.066266327824</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2359.600508066744</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>417.6040489720648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>417.6040489720648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>417.6040489720648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>417.6040489720648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1661.13895121386</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1661.13895121386</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>290.4564109463973</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>121.5202280184904</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>749.810573281298</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>749.810573281298</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>472.1048757766371</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,22 +5056,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245718</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403302</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245718</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403302</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>132.8188155394338</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>132.8188155394338</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7554,13 +7554,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194314</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194309</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>42.65370535201819</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813009</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741070.5948813012</v>
+        <v>741070.594881301</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813012</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741070.594881301</v>
+        <v>741070.5948813009</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.066132532898337e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083972</v>
+        <v>-832389.9260083977</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191949</v>
+        <v>496354.8197191952</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191947</v>
+        <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>243755.5988440074</v>
+        <v>244068.2401729279</v>
       </c>
       <c r="F6" t="n">
-        <v>569168.0606513617</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="G6" t="n">
-        <v>569168.0606513615</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="H6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.701980283</v>
       </c>
       <c r="I6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="J6" t="n">
-        <v>351636.8582540845</v>
+        <v>351949.4995830054</v>
       </c>
       <c r="K6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="L6" t="n">
-        <v>569168.0606513617</v>
+        <v>569480.7019802833</v>
       </c>
       <c r="M6" t="n">
-        <v>484113.0327158502</v>
+        <v>484425.6740447711</v>
       </c>
       <c r="N6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="O6" t="n">
-        <v>569168.0606513618</v>
+        <v>569480.7019802831</v>
       </c>
       <c r="P6" t="n">
-        <v>569168.0606513619</v>
+        <v>569480.7019802831</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>217.6364591749299</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>176.0595294020022</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>24.26439296306589</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>24.26439296306495</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>119.014216560461</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>13.62198094778341</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.55223036870453</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.0889477142667</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5051609648206</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>94.1574425477684</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>117.1573301250729</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,10 +28143,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551119</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551119</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.7638331807529</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.7638331807529</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
